--- a/import/tmp/data.xlsx
+++ b/import/tmp/data.xlsx
@@ -1,30 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4495DEBA-C3FB-41DA-9051-E4F7FD614120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59BA85-6469-479D-B07C-1397E7DDA0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{16AB0887-AE5D-470C-B2FA-BECBB9E40F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>NIK/NIM</t>
   </si>
   <si>
+    <t>Nama</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
@@ -34,9 +51,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
     <t>Risang Prakosa</t>
   </si>
   <si>
@@ -46,10 +60,10 @@
     <t>Mahasiswa</t>
   </si>
   <si>
-    <t>Gilang Prakoso</t>
-  </si>
-  <si>
     <t>gp12</t>
+  </si>
+  <si>
+    <t>ade</t>
   </si>
 </sst>
 </file>
@@ -58,9 +72,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -423,52 +439,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A574DB1C-03A7-4A89-B800-2ED6FBE1C4D0}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375"/>
-    <col min="4" max="4" width="15.42578125"/>
-    <col min="5" max="5" width="19.7109375"/>
-    <col min="6" max="6" width="44.42578125"/>
-    <col min="7" max="1026" width="11.5703125"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2017014001</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -476,15 +482,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017014002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>123</v>
@@ -493,12 +496,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20170140121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>